--- a/Outputs/MetricsTestData.xlsx
+++ b/Outputs/MetricsTestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicofrisch/Dokumente/Python/CashflowProjectionRNN/Outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C25472E-3BF3-3E4D-850A-47DEE25B5DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666A66DB-57C4-B945-8FC4-C024B38A09B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{8DBAE67F-DAD0-024E-A6A5-03525E56296E}"/>
   </bookViews>
@@ -3337,7 +3337,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
